--- a/Code/Results/Cases/Case_2_89/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_89/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9203324946235512</v>
+        <v>0.3695477391476345</v>
       </c>
       <c r="C2">
-        <v>0.1155799670317634</v>
+        <v>0.03713283776956189</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3213737226228162</v>
+        <v>0.1469818966848848</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.6258836307022477</v>
+        <v>0.8271985361931655</v>
       </c>
       <c r="H2">
-        <v>0.4579868200425068</v>
+        <v>0.8884377347848016</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9399084406110205</v>
+        <v>0.329930102009456</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6087918497611398</v>
+        <v>0.2427936730292899</v>
       </c>
       <c r="N2">
-        <v>0.8947555096081032</v>
+        <v>1.7534874407595</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7973438786920042</v>
+        <v>0.3353331068085197</v>
       </c>
       <c r="C3">
-        <v>0.1014047877590514</v>
+        <v>0.03282023116986466</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2787844059973281</v>
+        <v>0.136066826490385</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.5968825414556846</v>
+        <v>0.8254898051503545</v>
       </c>
       <c r="H3">
-        <v>0.4522303922398692</v>
+        <v>0.8923437923269688</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8137596357584584</v>
+        <v>0.2940628102415133</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5266245351513845</v>
+        <v>0.220595884493477</v>
       </c>
       <c r="N3">
-        <v>0.9431427609082519</v>
+        <v>1.772785254169563</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7224108661307582</v>
+        <v>0.3144587076047003</v>
       </c>
       <c r="C4">
-        <v>0.09274050165841174</v>
+        <v>0.03015878146882756</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2530954116357833</v>
+        <v>0.1294567659513888</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.5806117080519897</v>
+        <v>0.8249969203230876</v>
       </c>
       <c r="H4">
-        <v>0.4495825135590223</v>
+        <v>0.8951597997564562</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7368376106730778</v>
+        <v>0.2721185965840647</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4767786652843142</v>
+        <v>0.2070775817920847</v>
       </c>
       <c r="N4">
-        <v>0.974292575239776</v>
+        <v>1.785265768905443</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6920001802201909</v>
+        <v>0.3059859284374511</v>
       </c>
       <c r="C5">
-        <v>0.08921693198004732</v>
+        <v>0.02907081380260479</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.242729208890907</v>
+        <v>0.1267859904782824</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.5743423516169486</v>
+        <v>0.8249356101334513</v>
       </c>
       <c r="H5">
-        <v>0.4487151472653323</v>
+        <v>0.8964123173796708</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7056033325826832</v>
+        <v>0.2631959604163825</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4565981497022875</v>
+        <v>0.2015965581517563</v>
       </c>
       <c r="N5">
-        <v>0.9873368136759453</v>
+        <v>1.790510346791862</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.686957466975457</v>
+        <v>0.3045810697681475</v>
       </c>
       <c r="C6">
-        <v>0.088632205340474</v>
+        <v>0.02888995156958174</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2410137032423521</v>
+        <v>0.1263438857434807</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.5733224366416181</v>
+        <v>0.8249338479196098</v>
       </c>
       <c r="H6">
-        <v>0.4485835890559429</v>
+        <v>0.8966266354217822</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7004230515145053</v>
+        <v>0.2617155624131158</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4532546043755161</v>
+        <v>0.2006881120033484</v>
       </c>
       <c r="N6">
-        <v>0.9895236385525941</v>
+        <v>1.79139078372792</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7220002576267746</v>
+        <v>0.3143443040817999</v>
       </c>
       <c r="C7">
-        <v>0.09269295585188786</v>
+        <v>0.03014412256089827</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2529552127159036</v>
+        <v>0.1294206545909091</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.5805257271380384</v>
+        <v>0.8249955289118844</v>
       </c>
       <c r="H7">
-        <v>0.4495699733312364</v>
+        <v>0.8951762666969927</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7364159488008255</v>
+        <v>0.2719981824744053</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4765059946436452</v>
+        <v>0.2070035504810619</v>
       </c>
       <c r="N7">
-        <v>0.9744670903357111</v>
+        <v>1.785335856883687</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8777918270065754</v>
+        <v>0.3577228890834192</v>
       </c>
       <c r="C8">
-        <v>0.1106825196693677</v>
+        <v>0.03564864231852027</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3065847304520446</v>
+        <v>0.1431991866071343</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.6155496841181503</v>
+        <v>0.8264937028314279</v>
       </c>
       <c r="H8">
-        <v>0.4558109873916294</v>
+        <v>0.8896978208806132</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8962877162723544</v>
+        <v>0.3175468155848193</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5803224275965349</v>
+        <v>0.2351166772835782</v>
       </c>
       <c r="N8">
-        <v>0.9111333817924567</v>
+        <v>1.760010154600643</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.188966523199355</v>
+        <v>0.4438464404831848</v>
       </c>
       <c r="C9">
-        <v>0.1464049002526906</v>
+        <v>0.04633701988805683</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4160784082540445</v>
+        <v>0.1709587061968278</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.6976340137158843</v>
+        <v>0.8338620999660549</v>
       </c>
       <c r="H9">
-        <v>0.4756304102685505</v>
+        <v>0.8822717231495716</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.215119304625375</v>
+        <v>0.4074911172485258</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7896921840877553</v>
+        <v>0.2911398567359882</v>
       </c>
       <c r="N9">
-        <v>0.7989189502207914</v>
+        <v>1.7153637696657</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.422629835035394</v>
+        <v>0.5077718763994312</v>
       </c>
       <c r="C10">
-        <v>0.1731246336378121</v>
+        <v>0.05412740362463353</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5001770200255535</v>
+        <v>0.1918222537306278</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.767939643513742</v>
+        <v>0.8420016423054903</v>
       </c>
       <c r="H10">
-        <v>0.4956344706271096</v>
+        <v>0.8788430688133957</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.454263889940648</v>
+        <v>0.4739618658029201</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9485387158099101</v>
+        <v>0.3328640751312264</v>
       </c>
       <c r="N10">
-        <v>0.7246132258075768</v>
+        <v>1.685627825624394</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.53041225053056</v>
+        <v>0.5369960320650193</v>
       </c>
       <c r="C11">
-        <v>0.1854334808188014</v>
+        <v>0.05765843565886541</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5394798326495831</v>
+        <v>0.201419302115859</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.8025410368710197</v>
+        <v>0.8463019957392248</v>
       </c>
       <c r="H11">
-        <v>0.5061174725429822</v>
+        <v>0.8777246789844213</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.564525621484222</v>
+        <v>0.5042877981450715</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.022260392755271</v>
+        <v>0.3519723954598888</v>
       </c>
       <c r="N11">
-        <v>0.6927807540626532</v>
+        <v>1.672767423605485</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.571475711093967</v>
+        <v>0.5480831648260107</v>
       </c>
       <c r="C12">
-        <v>0.1901212738035269</v>
+        <v>0.05899372367242961</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5545363146008953</v>
+        <v>0.2050689858380252</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.8160612778695224</v>
+        <v>0.8480167815635298</v>
       </c>
       <c r="H12">
-        <v>0.5103044572146018</v>
+        <v>0.8773647240050337</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.606527544315071</v>
+        <v>0.5157841321405101</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.050420731224314</v>
+        <v>0.3592268555748959</v>
       </c>
       <c r="N12">
-        <v>0.6810288535755404</v>
+        <v>1.667993557797395</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.562620318282001</v>
+        <v>0.545694439517689</v>
       </c>
       <c r="C13">
-        <v>0.1891104086004276</v>
+        <v>0.05870622703879746</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5512855317177028</v>
+        <v>0.2042822685540102</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.813130195949114</v>
+        <v>0.847643625642192</v>
       </c>
       <c r="H13">
-        <v>0.5093927393311191</v>
+        <v>0.8774394186217762</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.59747002639341</v>
+        <v>0.5133076338270257</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.044344501446332</v>
+        <v>0.3576636496955885</v>
       </c>
       <c r="N13">
-        <v>0.6835460641435844</v>
+        <v>1.669017417925826</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.533785374215796</v>
+        <v>0.5379077655658762</v>
       </c>
       <c r="C14">
-        <v>0.1858185854778185</v>
+        <v>0.05776832736292192</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5407149245237974</v>
+        <v>0.2017192520298536</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.8036447418690074</v>
+        <v>0.8464413396380195</v>
       </c>
       <c r="H14">
-        <v>0.5064574717825963</v>
+        <v>0.877693790995707</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.567975950944572</v>
+        <v>0.5052333572807584</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.024572077368013</v>
+        <v>0.3525688513669323</v>
       </c>
       <c r="N14">
-        <v>0.691807742364837</v>
+        <v>1.672372747694002</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.516156594930635</v>
+        <v>0.533140878532862</v>
       </c>
       <c r="C15">
-        <v>0.1838058691713798</v>
+        <v>0.05719359780667332</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5342634187732287</v>
+        <v>0.2001513544885754</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.7978902661197935</v>
+        <v>0.8457161599360035</v>
       </c>
       <c r="H15">
-        <v>0.5046884097468336</v>
+        <v>0.877857880950188</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.549943434535891</v>
+        <v>0.5002892626801554</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.012493657187321</v>
+        <v>0.349450561958875</v>
       </c>
       <c r="N15">
-        <v>0.6969082338176804</v>
+        <v>1.674440504589796</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.415618831733667</v>
+        <v>0.5058648970035904</v>
       </c>
       <c r="C16">
-        <v>0.1723236988575678</v>
+        <v>0.05389638468574276</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4976314474650181</v>
+        <v>0.191197219046046</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.7657344698182271</v>
+        <v>0.8417326638618761</v>
       </c>
       <c r="H16">
-        <v>0.4949787491817972</v>
+        <v>0.8789250466973613</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.447090707736976</v>
+        <v>0.4719817580654535</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9437530226883482</v>
+        <v>0.3316178878948435</v>
       </c>
       <c r="N16">
-        <v>0.7267347828111923</v>
+        <v>1.686481716890714</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.35434693545119</v>
+        <v>0.4891687800806039</v>
       </c>
       <c r="C17">
-        <v>0.1653222898690245</v>
+        <v>0.05187036711694759</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4754424514469591</v>
+        <v>0.1857314894292799</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.7467066400562459</v>
+        <v>0.8394422680123341</v>
       </c>
       <c r="H17">
-        <v>0.4893890105507808</v>
+        <v>0.8796928174912182</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.384396130869902</v>
+        <v>0.4546385018867625</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9019799847064434</v>
+        <v>0.3207109722304793</v>
       </c>
       <c r="N17">
-        <v>0.7455499447080669</v>
+        <v>1.694039511795431</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.319242750683998</v>
+        <v>0.4795791925896253</v>
       </c>
       <c r="C18">
-        <v>0.1613094521445788</v>
+        <v>0.05070384497643943</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4627768757364876</v>
+        <v>0.1825977206171174</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.7360061970448299</v>
+        <v>0.8381811213188968</v>
       </c>
       <c r="H18">
-        <v>0.4863029237116763</v>
+        <v>0.8801759525910171</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.348472217150146</v>
+        <v>0.4446714137723689</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8780886349088419</v>
+        <v>0.3144496176579992</v>
       </c>
       <c r="N18">
-        <v>0.7565560698530831</v>
+        <v>1.698449287754659</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.30737973594799</v>
+        <v>0.4763346595512701</v>
       </c>
       <c r="C19">
-        <v>0.159953078980692</v>
+        <v>0.05030867240114389</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4585045166728463</v>
+        <v>0.1815383864334592</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.7324239090478386</v>
+        <v>0.8377637639637641</v>
       </c>
       <c r="H19">
-        <v>0.48527964618998</v>
+        <v>0.8803466644619391</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.336331362449954</v>
+        <v>0.4412981566096619</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8700217228186133</v>
+        <v>0.3123316886297189</v>
       </c>
       <c r="N19">
-        <v>0.7603136257444874</v>
+        <v>1.699953129538514</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.36085493145535</v>
+        <v>0.490944706113936</v>
       </c>
       <c r="C20">
-        <v>0.166066101781098</v>
+        <v>0.05208616534163468</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4777943149881736</v>
+        <v>0.1863122917112605</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.7487066621151968</v>
+        <v>0.839680262262533</v>
       </c>
       <c r="H20">
-        <v>0.4899705703714261</v>
+        <v>0.8796067877277238</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.391055711596522</v>
+        <v>0.4564838634383648</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9064125511360501</v>
+        <v>0.3218707872224655</v>
       </c>
       <c r="N20">
-        <v>0.7435278474578126</v>
+        <v>1.693228477421471</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.542247857640177</v>
+        <v>0.5401943431312191</v>
       </c>
       <c r="C21">
-        <v>0.1867847104311409</v>
+        <v>0.05804386100351167</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.543814868941638</v>
+        <v>0.2024716498811614</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.8064191764159148</v>
+        <v>0.8467921339002231</v>
       </c>
       <c r="H21">
-        <v>0.507313578408116</v>
+        <v>0.877617350047359</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.576632034037686</v>
+        <v>0.5076046279036461</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.030372826251458</v>
+        <v>0.3540648121347729</v>
       </c>
       <c r="N21">
-        <v>0.6893727197923809</v>
+        <v>1.671384596324874</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.662266037412394</v>
+        <v>0.5725017109093358</v>
       </c>
       <c r="C22">
-        <v>0.2004836027638106</v>
+        <v>0.061926856321179</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5879859258405844</v>
+        <v>0.2131231186412208</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.8465925308183273</v>
+        <v>0.8519435664186972</v>
       </c>
       <c r="H22">
-        <v>0.5199246191797613</v>
+        <v>0.8766876289835892</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.69938288560121</v>
+        <v>0.5410881754395405</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.112825415427181</v>
+        <v>0.3752137000382092</v>
       </c>
       <c r="N22">
-        <v>0.6557518159817164</v>
+        <v>1.657668548467985</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.598063525661075</v>
+        <v>0.5552477406201035</v>
       </c>
       <c r="C23">
-        <v>0.1931561505915198</v>
+        <v>0.05985540427622027</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5643092248342398</v>
+        <v>0.2074298818044298</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.8249121493103218</v>
+        <v>0.8491479562651989</v>
       </c>
       <c r="H23">
-        <v>0.5130705456103897</v>
+        <v>0.8771499073744451</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.63372142859285</v>
+        <v>0.5232107135437616</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.068675521001566</v>
+        <v>0.3639161770237891</v>
       </c>
       <c r="N23">
-        <v>0.6735269387506122</v>
+        <v>1.664937727144213</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.357912289524847</v>
+        <v>0.4901417811861677</v>
       </c>
       <c r="C24">
-        <v>0.1657297862392255</v>
+        <v>0.05198860837867869</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4767307552029294</v>
+        <v>0.1860496843822972</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.747801711033631</v>
+        <v>0.8395724917961331</v>
       </c>
       <c r="H24">
-        <v>0.4897072513261804</v>
+        <v>0.879645551787803</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.388044543974331</v>
+        <v>0.45564956369887</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9044082024648361</v>
+        <v>0.3213464062991562</v>
       </c>
       <c r="N24">
-        <v>0.7444414502401138</v>
+        <v>1.693594944533093</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.104022389319027</v>
+        <v>0.4204338984738172</v>
       </c>
       <c r="C25">
-        <v>0.1366735135601544</v>
+        <v>0.04345664532523585</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3858947062966536</v>
+        <v>0.1633679991752857</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.6738133948339424</v>
+        <v>0.8313918579229949</v>
       </c>
       <c r="H25">
-        <v>0.4693763939529845</v>
+        <v>0.8839250382530253</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.128134341789405</v>
+        <v>0.3830911674946265</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7322858872831262</v>
+        <v>0.2758864611792902</v>
       </c>
       <c r="N25">
-        <v>0.827911279831909</v>
+        <v>1.726903949700041</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_89/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_89/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3695477391476345</v>
+        <v>0.9203324946237785</v>
       </c>
       <c r="C2">
-        <v>0.03713283776956189</v>
+        <v>0.1155799670315503</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1469818966848848</v>
+        <v>0.3213737226227735</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8271985361931655</v>
+        <v>0.6258836307022762</v>
       </c>
       <c r="H2">
-        <v>0.8884377347848016</v>
+        <v>0.4579868200425352</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.329930102009456</v>
+        <v>0.9399084406110489</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2427936730292899</v>
+        <v>0.6087918497611398</v>
       </c>
       <c r="N2">
-        <v>1.7534874407595</v>
+        <v>0.8947555096081103</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3353331068085197</v>
+        <v>0.797343878692061</v>
       </c>
       <c r="C3">
-        <v>0.03282023116986466</v>
+        <v>0.1014047877594777</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.136066826490385</v>
+        <v>0.2787844059973565</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.8254898051503545</v>
+        <v>0.5968825414556989</v>
       </c>
       <c r="H3">
-        <v>0.8923437923269688</v>
+        <v>0.4522303922398692</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2940628102415133</v>
+        <v>0.81375963575843</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.220595884493477</v>
+        <v>0.5266245351513703</v>
       </c>
       <c r="N3">
-        <v>1.772785254169563</v>
+        <v>0.9431427609082519</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3144587076047003</v>
+        <v>0.7224108661307582</v>
       </c>
       <c r="C4">
-        <v>0.03015878146882756</v>
+        <v>0.09274050165824121</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1294567659513888</v>
+        <v>0.2530954116357762</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.8249969203230876</v>
+        <v>0.5806117080519755</v>
       </c>
       <c r="H4">
-        <v>0.8951597997564562</v>
+        <v>0.449582513559136</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2721185965840647</v>
+        <v>0.7368376106730352</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2070775817920847</v>
+        <v>0.4767786652843071</v>
       </c>
       <c r="N4">
-        <v>1.785265768905443</v>
+        <v>0.9742925752397937</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3059859284374511</v>
+        <v>0.6920001802202194</v>
       </c>
       <c r="C5">
-        <v>0.02907081380260479</v>
+        <v>0.08921693197994784</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1267859904782824</v>
+        <v>0.2427292088908999</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.8249356101334513</v>
+        <v>0.5743423516169486</v>
       </c>
       <c r="H5">
-        <v>0.8964123173796708</v>
+        <v>0.4487151472653323</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2631959604163825</v>
+        <v>0.7056033325827116</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2015965581517563</v>
+        <v>0.4565981497022946</v>
       </c>
       <c r="N5">
-        <v>1.790510346791862</v>
+        <v>0.9873368136759417</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3045810697681475</v>
+        <v>0.6869574669754286</v>
       </c>
       <c r="C6">
-        <v>0.02888995156958174</v>
+        <v>0.08863220534016136</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1263438857434807</v>
+        <v>0.2410137032423592</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.8249338479196098</v>
+        <v>0.5733224366416323</v>
       </c>
       <c r="H6">
-        <v>0.8966266354217822</v>
+        <v>0.4485835890559287</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2617155624131158</v>
+        <v>0.7004230515145338</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2006881120033484</v>
+        <v>0.4532546043755303</v>
       </c>
       <c r="N6">
-        <v>1.79139078372792</v>
+        <v>0.9895236385525266</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3143443040817999</v>
+        <v>0.7220002576268882</v>
       </c>
       <c r="C7">
-        <v>0.03014412256089827</v>
+        <v>0.09269295585146153</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1294206545909091</v>
+        <v>0.2529552127158894</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.8249955289118844</v>
+        <v>0.5805257271380384</v>
       </c>
       <c r="H7">
-        <v>0.8951762666969927</v>
+        <v>0.4495699733312222</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2719981824744053</v>
+        <v>0.7364159488007544</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2070035504810619</v>
+        <v>0.4765059946436594</v>
       </c>
       <c r="N7">
-        <v>1.785335856883687</v>
+        <v>0.974467090335672</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3577228890834192</v>
+        <v>0.8777918270065754</v>
       </c>
       <c r="C8">
-        <v>0.03564864231852027</v>
+        <v>0.1106825196687566</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1431991866071343</v>
+        <v>0.3065847304520659</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.8264937028314279</v>
+        <v>0.6155496841181503</v>
       </c>
       <c r="H8">
-        <v>0.8896978208806132</v>
+        <v>0.4558109873916294</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3175468155848193</v>
+        <v>0.8962877162723544</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2351166772835782</v>
+        <v>0.5803224275965206</v>
       </c>
       <c r="N8">
-        <v>1.760010154600643</v>
+        <v>0.9111333817923928</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4438464404831848</v>
+        <v>1.188966523199326</v>
       </c>
       <c r="C9">
-        <v>0.04633701988805683</v>
+        <v>0.1464049002526764</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1709587061968278</v>
+        <v>0.4160784082540374</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.8338620999660549</v>
+        <v>0.6976340137158132</v>
       </c>
       <c r="H9">
-        <v>0.8822717231495716</v>
+        <v>0.4756304102685505</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4074911172485258</v>
+        <v>1.215119304625347</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2911398567359882</v>
+        <v>0.7896921840877411</v>
       </c>
       <c r="N9">
-        <v>1.7153637696657</v>
+        <v>0.7989189502207878</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5077718763994312</v>
+        <v>1.422629835035252</v>
       </c>
       <c r="C10">
-        <v>0.05412740362463353</v>
+        <v>0.1731246336375847</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1918222537306278</v>
+        <v>0.5001770200255393</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.8420016423054903</v>
+        <v>0.7679396435137846</v>
       </c>
       <c r="H10">
-        <v>0.8788430688133957</v>
+        <v>0.4956344706271096</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4739618658029201</v>
+        <v>1.454263889940705</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3328640751312264</v>
+        <v>0.9485387158099101</v>
       </c>
       <c r="N10">
-        <v>1.685627825624394</v>
+        <v>0.7246132258076337</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5369960320650193</v>
+        <v>1.530412250530446</v>
       </c>
       <c r="C11">
-        <v>0.05765843565886541</v>
+        <v>0.1854334808190146</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.201419302115859</v>
+        <v>0.5394798326495973</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.8463019957392248</v>
+        <v>0.8025410368710197</v>
       </c>
       <c r="H11">
-        <v>0.8777246789844213</v>
+        <v>0.5061174725429964</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5042877981450715</v>
+        <v>1.564525621484279</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3519723954598888</v>
+        <v>1.022260392755278</v>
       </c>
       <c r="N11">
-        <v>1.672767423605485</v>
+        <v>0.6927807540625963</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5480831648260107</v>
+        <v>1.571475711093967</v>
       </c>
       <c r="C12">
-        <v>0.05899372367242961</v>
+        <v>0.1901212738032996</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2050689858380252</v>
+        <v>0.5545363146009237</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.8480167815635298</v>
+        <v>0.8160612778695224</v>
       </c>
       <c r="H12">
-        <v>0.8773647240050337</v>
+        <v>0.510304457214616</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5157841321405101</v>
+        <v>1.606527544315156</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3592268555748959</v>
+        <v>1.050420731224328</v>
       </c>
       <c r="N12">
-        <v>1.667993557797395</v>
+        <v>0.681028853575512</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.545694439517689</v>
+        <v>1.562620318282001</v>
       </c>
       <c r="C13">
-        <v>0.05870622703879746</v>
+        <v>0.1891104086002997</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2042822685540102</v>
+        <v>0.5512855317176601</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.847643625642192</v>
+        <v>0.8131301959491708</v>
       </c>
       <c r="H13">
-        <v>0.8774394186217762</v>
+        <v>0.5093927393311191</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5133076338270257</v>
+        <v>1.597470026393438</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3576636496955885</v>
+        <v>1.044344501446325</v>
       </c>
       <c r="N13">
-        <v>1.669017417925826</v>
+        <v>0.6835460641435986</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5379077655658762</v>
+        <v>1.533785374215853</v>
       </c>
       <c r="C14">
-        <v>0.05776832736292192</v>
+        <v>0.1858185854778043</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2017192520298536</v>
+        <v>0.5407149245237832</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.8464413396380195</v>
+        <v>0.8036447418690216</v>
       </c>
       <c r="H14">
-        <v>0.877693790995707</v>
+        <v>0.5064574717827242</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5052333572807584</v>
+        <v>1.567975950944543</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3525688513669323</v>
+        <v>1.024572077368006</v>
       </c>
       <c r="N14">
-        <v>1.672372747694002</v>
+        <v>0.691807742364837</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.533140878532862</v>
+        <v>1.51615659493072</v>
       </c>
       <c r="C15">
-        <v>0.05719359780667332</v>
+        <v>0.1838058691712661</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2001513544885754</v>
+        <v>0.5342634187732216</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.8457161599360035</v>
+        <v>0.7978902661197793</v>
       </c>
       <c r="H15">
-        <v>0.877857880950188</v>
+        <v>0.5046884097468194</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5002892626801554</v>
+        <v>1.54994343453572</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.349450561958875</v>
+        <v>1.012493657187349</v>
       </c>
       <c r="N15">
-        <v>1.674440504589796</v>
+        <v>0.6969082338176733</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5058648970035904</v>
+        <v>1.415618831733724</v>
       </c>
       <c r="C16">
-        <v>0.05389638468574276</v>
+        <v>0.1723236988578947</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.191197219046046</v>
+        <v>0.4976314474649755</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.8417326638618761</v>
+        <v>0.7657344698182982</v>
       </c>
       <c r="H16">
-        <v>0.8789250466973613</v>
+        <v>0.4949787491818256</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4719817580654535</v>
+        <v>1.447090707736947</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3316178878948435</v>
+        <v>0.9437530226883695</v>
       </c>
       <c r="N16">
-        <v>1.686481716890714</v>
+        <v>0.726734782811107</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4891687800806039</v>
+        <v>1.354346935451161</v>
       </c>
       <c r="C17">
-        <v>0.05187036711694759</v>
+        <v>0.1653222898688966</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1857314894292799</v>
+        <v>0.4754424514469591</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.8394422680123341</v>
+        <v>0.7467066400562175</v>
       </c>
       <c r="H17">
-        <v>0.8796928174912182</v>
+        <v>0.4893890105509087</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4546385018867625</v>
+        <v>1.384396130869874</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3207109722304793</v>
+        <v>0.9019799847064505</v>
       </c>
       <c r="N17">
-        <v>1.694039511795431</v>
+        <v>0.745549944708074</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4795791925896253</v>
+        <v>1.319242750683856</v>
       </c>
       <c r="C18">
-        <v>0.05070384497643943</v>
+        <v>0.1613094521441099</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1825977206171174</v>
+        <v>0.4627768757364876</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.8381811213188968</v>
+        <v>0.7360061970448584</v>
       </c>
       <c r="H18">
-        <v>0.8801759525910171</v>
+        <v>0.4863029237116763</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4446714137723689</v>
+        <v>1.34847221715026</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3144496176579992</v>
+        <v>0.8780886349088419</v>
       </c>
       <c r="N18">
-        <v>1.698449287754659</v>
+        <v>0.7565560698530724</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4763346595512701</v>
+        <v>1.307379735948075</v>
       </c>
       <c r="C19">
-        <v>0.05030867240114389</v>
+        <v>0.1599530789810615</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1815383864334592</v>
+        <v>0.4585045166728463</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.8377637639637641</v>
+        <v>0.732423909047867</v>
       </c>
       <c r="H19">
-        <v>0.8803466644619391</v>
+        <v>0.4852796461898663</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4412981566096619</v>
+        <v>1.336331362449982</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3123316886297189</v>
+        <v>0.8700217228186204</v>
       </c>
       <c r="N19">
-        <v>1.699953129538514</v>
+        <v>0.7603136257444945</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.490944706113936</v>
+        <v>1.360854931455492</v>
       </c>
       <c r="C20">
-        <v>0.05208616534163468</v>
+        <v>0.1660661017813538</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1863122917112605</v>
+        <v>0.4777943149881949</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.839680262262533</v>
+        <v>0.7487066621152536</v>
       </c>
       <c r="H20">
-        <v>0.8796067877277238</v>
+        <v>0.4899705703715256</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4564838634383648</v>
+        <v>1.391055711596437</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3218707872224655</v>
+        <v>0.9064125511360572</v>
       </c>
       <c r="N20">
-        <v>1.693228477421471</v>
+        <v>0.7435278474578411</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5401943431312191</v>
+        <v>1.542247857640319</v>
       </c>
       <c r="C21">
-        <v>0.05804386100351167</v>
+        <v>0.1867847104309988</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2024716498811614</v>
+        <v>0.5438148689416522</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.8467921339002231</v>
+        <v>0.8064191764158863</v>
       </c>
       <c r="H21">
-        <v>0.877617350047359</v>
+        <v>0.5073135784080023</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5076046279036461</v>
+        <v>1.576632034037686</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3540648121347729</v>
+        <v>1.030372826251444</v>
       </c>
       <c r="N21">
-        <v>1.671384596324874</v>
+        <v>0.6893727197923738</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5725017109093358</v>
+        <v>1.662266037412337</v>
       </c>
       <c r="C22">
-        <v>0.061926856321179</v>
+        <v>0.200483602763768</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2131231186412208</v>
+        <v>0.5879859258405844</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.8519435664186972</v>
+        <v>0.8465925308183699</v>
       </c>
       <c r="H22">
-        <v>0.8766876289835892</v>
+        <v>0.5199246191797471</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5410881754395405</v>
+        <v>1.699382885601153</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3752137000382092</v>
+        <v>1.112825415427174</v>
       </c>
       <c r="N22">
-        <v>1.657668548467985</v>
+        <v>0.6557518159817093</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5552477406201035</v>
+        <v>1.598063525661217</v>
       </c>
       <c r="C23">
-        <v>0.05985540427622027</v>
+        <v>0.1931561505915198</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2074298818044298</v>
+        <v>0.5643092248343038</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.8491479562651989</v>
+        <v>0.8249121493102507</v>
       </c>
       <c r="H23">
-        <v>0.8771499073744451</v>
+        <v>0.513070545610276</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5232107135437616</v>
+        <v>1.633721428592878</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3639161770237891</v>
+        <v>1.068675521001573</v>
       </c>
       <c r="N23">
-        <v>1.664937727144213</v>
+        <v>0.6735269387505554</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4901417811861677</v>
+        <v>1.35791228952499</v>
       </c>
       <c r="C24">
-        <v>0.05198860837867869</v>
+        <v>0.1657297862392113</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1860496843822972</v>
+        <v>0.4767307552029223</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.8395724917961331</v>
+        <v>0.7478017110336452</v>
       </c>
       <c r="H24">
-        <v>0.879645551787803</v>
+        <v>0.4897072513262088</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.45564956369887</v>
+        <v>1.38804454397436</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3213464062991562</v>
+        <v>0.9044082024648361</v>
       </c>
       <c r="N24">
-        <v>1.693594944533093</v>
+        <v>0.7444414502401138</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4204338984738172</v>
+        <v>1.10402238931897</v>
       </c>
       <c r="C25">
-        <v>0.04345664532523585</v>
+        <v>0.136673513560396</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1633679991752857</v>
+        <v>0.3858947062966465</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.8313918579229949</v>
+        <v>0.6738133948339424</v>
       </c>
       <c r="H25">
-        <v>0.8839250382530253</v>
+        <v>0.4693763939529987</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3830911674946265</v>
+        <v>1.128134341789377</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2758864611792902</v>
+        <v>0.7322858872831333</v>
       </c>
       <c r="N25">
-        <v>1.726903949700041</v>
+        <v>0.8279112798319126</v>
       </c>
       <c r="O25">
         <v>0</v>
